--- a/biology/Botanique/Soave_Superiore/Soave_Superiore.xlsx
+++ b/biology/Botanique/Soave_Superiore/Soave_Superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le soave superiore est un vin blanc italien AOP (DOCG) dont la production est admise dans la province de Vérone. 
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La région de Soave était, déjà en époque romaine un « pagus », c’est-à-dire une circonscription territoriale rurale, connue pour sa bonne position géographique et pour l’intensité de la culture de la vigne. Un important témoignage de la culture viticole de cette région au Moyen Âge, qui apparaît sur une pierre tombale du palais de justice de Soave est daté 1375.
 Les premières mesures de protection des vins typiques eurent lieu en 1924 et elles conduisirent à la fondation du Consortium pour la protection du vin typique Soave. En octobre 1931, fut identifiée la première aire délimitée pour la production du « Vin Typique Soave ».
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologie
-Les sols se constituent, dans la plupart des cas, de substrats de roches basaltiques décomposées. Ces dernières sont à l’origine des sols argileux siliceux peu alcalins, riches en matières minérales, bien drainés. Les sols présentent en outre une bonne capacité de stocker les ressources hydriques au cours de l’année.
-Climatologie
-En ce qui concerne la situation climatique, l’aire de Soave bénéficie d’un climat doux et tempéré. Les précipitations annuelles, allant de 700 à 1 000 mm, se concentrent généralement au printemps et en automne. Les vignes sont exposées vers l’est, le sud et l’ouest.
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols se constituent, dans la plupart des cas, de substrats de roches basaltiques décomposées. Ces dernières sont à l’origine des sols argileux siliceux peu alcalins, riches en matières minérales, bien drainés. Les sols présentent en outre une bonne capacité de stocker les ressources hydriques au cours de l’année.
 </t>
         </is>
       </c>
@@ -577,10 +594,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En ce qui concerne la situation climatique, l’aire de Soave bénéficie d’un climat doux et tempéré. Les précipitations annuelles, allant de 700 à 1 000 mm, se concentrent généralement au printemps et en automne. Les vignes sont exposées vers l’est, le sud et l’ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Soave_Superiore</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soave_Superiore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la production du vin soave superiore, les cépages utilisés principalement sont les suivants : le Garganega, dans les proportions de 70 à 100 %, le Trebbiano di Soave, dans la proportion de 30 % et le Chardonnay dans la même proportion que le premier. 
 Les cépages à baie blanche admis à la culture dans la province de Vérone peuvent être également utilisés dans une proportion n’excédant pas 30 % et en respectant la limite de 5 % pour chaque cépage utilisé.
@@ -590,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Soave_Superiore</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Soave_Superiore</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture de la vigne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas des vignes plantées antérieurement à l’entrée en vigueur du cahier des charges actuel, la taille en pergola Véronèse est admise ; tandis que pour les vignes plantées après l’entrée en vigueur du décret ministériel d’11 juillet 2005, seule la taille en espalier simple peut être utilisée.
 Le nombre des pieds par hectare est de 4 000 au minimum.
@@ -627,31 +685,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Soave_Superiore</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Soave_Superiore</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Taux d'alcool minimum du vin : 12 % vol. ;
 Acidité totale minimale : 4,5 g/l ;
@@ -660,31 +720,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Soave_Superiore</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Soave_Superiore</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur : jaune paille, parfois avec des reflets verts et dorés ;
 Odeur : ample, caractéristique, florale ;
